--- a/test_files/QuestionBank-Template-V1.xlsx
+++ b/test_files/QuestionBank-Template-V1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Assumption University\Senior Project 1\SeniorProject1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julia/Desktop/SP1/SeniorProject1/test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB883464-09DE-481F-97A5-401C66E50122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C07427-7B82-A746-8AC3-353378BCFFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{EFFFEAF5-3877-4B94-88A7-1185D1104C50}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="3" xr2:uid="{EFFFEAF5-3877-4B94-88A7-1185D1104C50}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="262">
   <si>
     <t>T</t>
   </si>
@@ -191,9 +191,6 @@
   </si>
   <si>
     <t>Time</t>
-  </si>
-  <si>
-    <t>Which of the following is an animal?</t>
   </si>
   <si>
     <t>Banana</t>
@@ -421,9 +418,6 @@
     <t>forest.png</t>
   </si>
   <si>
-    <t>Which is located by the beach?</t>
-  </si>
-  <si>
     <t>Mountain</t>
   </si>
   <si>
@@ -692,18 +686,165 @@
   </si>
   <si>
     <t>Fried Ric</t>
+  </si>
+  <si>
+    <t>Which of oneis a natural place?</t>
+  </si>
+  <si>
+    <t>Which is locate by the beach?</t>
+  </si>
+  <si>
+    <t>Which the following is an animal?</t>
+  </si>
+  <si>
+    <t>Something purple.</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>7.png</t>
+  </si>
+  <si>
+    <t>Something round.</t>
+  </si>
+  <si>
+    <t>Ball</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>8.png</t>
+  </si>
+  <si>
+    <t>Something square.</t>
+  </si>
+  <si>
+    <t>Dice</t>
+  </si>
+  <si>
+    <t>Something that fly.</t>
+  </si>
+  <si>
+    <t>9.png</t>
+  </si>
+  <si>
+    <t>Something that swim.</t>
+  </si>
+  <si>
+    <t>Something that bark.</t>
+  </si>
+  <si>
+    <t>10.png</t>
+  </si>
+  <si>
+    <t>Something that meow.</t>
+  </si>
+  <si>
+    <t>Something used to write.</t>
+  </si>
+  <si>
+    <t>Pen</t>
+  </si>
+  <si>
+    <t>11.png</t>
+  </si>
+  <si>
+    <t>Something used to cut.</t>
+  </si>
+  <si>
+    <t>Scissors</t>
+  </si>
+  <si>
+    <t>Something used to eat soup.</t>
+  </si>
+  <si>
+    <t>Spoon</t>
+  </si>
+  <si>
+    <t>utensil</t>
+  </si>
+  <si>
+    <t>12.png</t>
+  </si>
+  <si>
+    <t>Something used to eat rice.</t>
+  </si>
+  <si>
+    <t>Fork</t>
+  </si>
+  <si>
+    <t>Something you wear on foot.</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>clothing</t>
+  </si>
+  <si>
+    <t>13.png</t>
+  </si>
+  <si>
+    <t>Something you wear on head.</t>
+  </si>
+  <si>
+    <t>Hat</t>
+  </si>
+  <si>
+    <t>Something that shine at night.</t>
+  </si>
+  <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t>nature</t>
+  </si>
+  <si>
+    <t>14.png</t>
+  </si>
+  <si>
+    <t>Something that shine at day.</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Something we drink in morning.</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>15.png</t>
+  </si>
+  <si>
+    <t>Something we drink when hot.</t>
+  </si>
+  <si>
+    <t>Water</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -733,7 +874,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -744,6 +885,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1084,14 +1226,14 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1104,10 +1246,10 @@
       </c>
       <c r="Q1" s="3">
         <f ca="1">TODAY()</f>
-        <v>45896</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+        <v>45926</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1123,23 +1265,23 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" t="str">
         <f ca="1">VLOOKUP(Q3,P6:R17,2,FALSE)</f>
-        <v>MIDTERM</v>
+        <v>FINAL</v>
       </c>
       <c r="P3" t="s">
         <v>4</v>
       </c>
       <c r="Q3">
         <f ca="1">MONTH(Q1)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1156,7 +1298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1173,7 +1315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P7">
         <v>2</v>
       </c>
@@ -1184,7 +1326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -1201,7 +1343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1218,7 +1360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1235,7 +1377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P11">
         <v>6</v>
       </c>
@@ -1246,7 +1388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -1264,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1286,7 +1428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P14">
         <v>9</v>
       </c>
@@ -1297,7 +1439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P15">
         <v>10</v>
       </c>
@@ -1308,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P16">
         <v>11</v>
       </c>
@@ -1319,7 +1461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="16:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="16:18" x14ac:dyDescent="0.2">
       <c r="P17">
         <v>12</v>
       </c>
@@ -1337,19 +1479,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3C1A04-8C9A-4AB3-92D4-9CFE7C63CA0B}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="66.44140625" customWidth="1"/>
-    <col min="2" max="6" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="66.5" customWidth="1"/>
+    <col min="2" max="6" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1372,30 +1514,30 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" t="s">
         <v>208</v>
-      </c>
-      <c r="D2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F2" t="s">
-        <v>210</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -1404,27 +1546,27 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
       <c r="B3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" t="s">
         <v>211</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>212</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>213</v>
-      </c>
-      <c r="E3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F3" t="s">
-        <v>215</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -1436,410 +1578,497 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>217</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>53</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>54</v>
-      </c>
-      <c r="F4" t="s">
-        <v>55</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
       </c>
       <c r="H4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s">
         <v>56</v>
       </c>
-      <c r="I4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
         <v>73</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>74</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>75</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
         <v>76</v>
-      </c>
-      <c r="E5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" t="s">
-        <v>77</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
         <v>78</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>79</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>80</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>81</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>82</v>
-      </c>
-      <c r="F6" t="s">
-        <v>83</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
         <v>86</v>
       </c>
-      <c r="B7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>87</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>88</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>89</v>
-      </c>
-      <c r="F7" t="s">
-        <v>90</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
         <v>93</v>
-      </c>
-      <c r="B8" t="s">
-        <v>94</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
       </c>
       <c r="D8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" t="s">
         <v>95</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>96</v>
-      </c>
-      <c r="F8" t="s">
-        <v>97</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
         <v>100</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>101</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>102</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>103</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>104</v>
-      </c>
-      <c r="F9" t="s">
-        <v>105</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
       <c r="H9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>106</v>
       </c>
-      <c r="I9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>107</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>108</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>109</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>110</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>111</v>
-      </c>
-      <c r="F10" t="s">
-        <v>112</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
       </c>
       <c r="H10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>113</v>
       </c>
-      <c r="I10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>114</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>115</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" t="s">
         <v>116</v>
       </c>
-      <c r="D11" t="s">
-        <v>216</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>117</v>
-      </c>
-      <c r="F11" t="s">
-        <v>118</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
       </c>
       <c r="H11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>119</v>
-      </c>
-      <c r="I11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>120</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" t="s">
         <v>121</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>122</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>123</v>
-      </c>
-      <c r="F12" t="s">
-        <v>124</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" t="s">
         <v>126</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>127</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>128</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>129</v>
-      </c>
-      <c r="E13" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" t="s">
-        <v>131</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" t="s">
         <v>133</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>134</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>135</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>136</v>
-      </c>
-      <c r="E14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F14" t="s">
-        <v>138</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" t="s">
         <v>140</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>141</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>142</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>143</v>
-      </c>
-      <c r="E15" t="s">
-        <v>144</v>
-      </c>
-      <c r="F15" t="s">
-        <v>145</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
       </c>
       <c r="H15" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
         <v>146</v>
       </c>
-      <c r="I15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="E16" t="s">
         <v>147</v>
       </c>
-      <c r="B16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" t="s">
-        <v>148</v>
-      </c>
-      <c r="E16" t="s">
-        <v>149</v>
-      </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s">
         <v>15</v>
       </c>
       <c r="H16" t="s">
+        <v>148</v>
+      </c>
+      <c r="I16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" t="s">
         <v>150</v>
       </c>
-      <c r="I16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="C17" t="s">
         <v>151</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" t="s">
         <v>152</v>
       </c>
-      <c r="C17" t="s">
+      <c r="F17" t="s">
         <v>153</v>
-      </c>
-      <c r="D17" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" t="s">
-        <v>154</v>
-      </c>
-      <c r="F17" t="s">
-        <v>155</v>
       </c>
       <c r="G17" t="s">
         <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>137</v>
+      </c>
+      <c r="I19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>215</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>124</v>
+      </c>
+      <c r="I20" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1850,20 +2079,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589423D0-50CB-4F3F-82F4-CB353E932D78}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="52.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1874,9 +2103,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -1885,20 +2114,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -1907,31 +2136,31 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -1940,9 +2169,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
@@ -1951,20 +2180,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
@@ -1973,345 +2202,367 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>169</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>170</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>173</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>174</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>175</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>180</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>181</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>182</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>189</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>191</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>192</v>
-      </c>
       <c r="B34" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2321,20 +2572,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFE4AC3-D33B-41F7-AFE1-650B291E6FA6}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="70.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.5" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2345,7 +2596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -2356,7 +2607,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -2367,7 +2618,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -2378,59 +2629,297 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2446,15 +2935,15 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="44.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="35.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2462,13 +2951,13 @@
         <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -2482,7 +2971,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -2496,80 +2985,80 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
     </row>
   </sheetData>
